--- a/drivers_db.xlsx
+++ b/drivers_db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,9 +541,6 @@
           <t>510-002</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>Volvo Р 333 КВ 51</t>
@@ -554,16 +551,11 @@
           <t>Ак 7042 51</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>Мурманск улица Старостина дом 3 квартира 56</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -586,13 +578,11 @@
           <t>02.07.2004</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>99 28 312165</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>+7 (911) 410-53-73</t>
@@ -613,11 +603,369 @@
           <t>ИП Южаков</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Атакишиев Алиаббас Маил Оглы</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>УФМС России по Мурманской области в Октябрьском Административном Округе Города Мурманска</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>07.02.2014</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>510-002</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>+7 (471) 343-16-28</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Volvo Р 333 КВ 51</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>АК 7042 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Волков Николай Петрович</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20 09 № 118118</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Отделением УФМС России по Воронежской области</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18.06.2009</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>360-028</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>+7 (910) 344-37-13</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Скания Н 007 ТМ 36</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ШМИТЦ АУ 0007 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Петин Сергей Геннадьевич</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>83 09 № 981436</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>УФМС России по Кабардино-Балкарской Республике в Прохладненском Р-Не</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.12.2009</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>070-007</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>+7 (931) 299-98-02</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ВОЛЬВО С647НУ198</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ШМИТЦ ЕА 3874 78</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ИП Невинская Татьяна Леонидовна</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>г. Санкт-Петербург, Красносельский Р-Он, Ул. Пионерстроя, д. 7, кор. 2, лит. А, кв. 151</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Горшков Александр Александрович</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17 16 524327</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>330-040</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Mercedes-benz K 897 Ut 33</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>An657733</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Астапов Александр Викторович</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1513 079375</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Отделом УФМС России по Брянской области в Бежицком районе города Брянска</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.06.2013</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>320-001</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>+7 (952) 963-11-05</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>АО 2223</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Сибилев Алексей Юрьевич</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3813 945189</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ТП УФМС ПО КУРСКОЙ ОБЛАСТИ ДМИТРИЕВСКОМ РАЙОНЕ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.06.2014</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>460-014</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>9920 777159</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>+7 (915) 801-12-82</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Н 020 ОР 32</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>АМ 3814</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>01.06.1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Пархоменко Александр Александрович</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2812 221142</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10.01.2013</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>+7 (915) 720-61-19</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>м Вольво М 612 НС 69</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Молнер Юрий Сергеевич</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1804 533725</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Урюпинским РОВД Волгоградской области</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19.01.2005</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>+7 (981) 352-63-32</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>MAN К 516 ТУ 147</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ВК 0650 47</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
